--- a/feign-httpclient_test_report.xlsx
+++ b/feign-httpclient_test_report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523C8E33-8842-45A5-8292-D2004639DBDB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4BC56E-5AA0-4E8E-8901-E7D79CE8304D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>feign的方式调用，</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,16 +73,6 @@
       </rPr>
       <t>no suitable HttpMessageConverter found for request type [com.local.entity.Order] and content type [text/plain]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以返回String 直接将对象转换为json串之后返回
-可以返回对象，@ResponseBody注解可加可不加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以返回String 直接将对象转换为json串之后返回
-可以返回对象，@ResponseBody注解可加可不加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -145,14 +135,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消费端(服务API的@RequestMapping注解中只允许指定一种consumes或produces类型)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需要在请求头中设置Content-Type类型（看服务端允许什么类型, 一般也就允许下面两种类型），
 application/json
 text/plain
 当然，如果服务端允许text/html，这里也可以设置Content-Type为text/html，反正请求参数是String类型的，且会存于报文的请求体中，最终服务提供端会从报文的请求体中提取（不管是通过读流的方式还是通过@RequestBody直接获取）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>消费端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(服务API的@RequestMapping注解中只允许指定一种consumes或produces类型)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以返回String 直接将对象转换为json串之后返回
+可以返回对象，前提方法上加@ResponseBody注解或类上标有@RestController注解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,7 +704,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -710,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -727,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -749,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5"/>
@@ -772,11 +780,9 @@
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -784,17 +790,15 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E7:E8"/>
+  <mergeCells count="9">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:A8"/>
@@ -803,6 +807,7 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
